--- a/Data/Transitions/19541974Translation.xlsx
+++ b/Data/Transitions/19541974Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="710">
   <si>
     <t>id</t>
   </si>
@@ -592,7 +592,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -1748,9 +1748,6 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.02623305854408272}</t>
@@ -4608,7 +4605,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>578</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4619,7 +4616,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4641,7 +4638,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4652,7 +4649,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4663,7 +4660,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4674,7 +4671,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4685,7 +4682,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4729,7 +4726,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4795,7 +4792,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4817,7 +4814,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4839,7 +4836,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4850,7 +4847,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4872,7 +4869,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4949,7 +4946,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4971,7 +4968,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4982,7 +4979,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4993,7 +4990,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5015,7 +5012,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5059,7 +5056,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5070,7 +5067,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5081,7 +5078,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5092,7 +5089,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5103,7 +5100,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5125,7 +5122,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5224,7 +5221,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5235,7 +5232,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5246,7 +5243,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5268,7 +5265,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5279,7 +5276,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5290,7 +5287,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5301,7 +5298,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5378,7 +5375,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5389,7 +5386,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5400,7 +5397,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5422,7 +5419,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5444,7 +5441,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5455,7 +5452,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5466,7 +5463,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5499,7 +5496,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5521,7 +5518,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5532,7 +5529,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5543,7 +5540,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5554,7 +5551,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5565,7 +5562,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5576,7 +5573,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5598,7 +5595,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5609,7 +5606,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5631,7 +5628,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5653,7 +5650,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5664,7 +5661,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5675,7 +5672,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5719,7 +5716,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5730,7 +5727,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5763,7 +5760,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5796,7 +5793,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5851,7 +5848,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5862,7 +5859,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5884,7 +5881,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5895,7 +5892,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5917,7 +5914,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5983,7 +5980,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6005,7 +6002,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6016,7 +6013,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6038,7 +6035,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6093,7 +6090,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6104,7 +6101,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6159,7 +6156,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6170,7 +6167,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6181,7 +6178,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6192,7 +6189,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6203,7 +6200,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6214,7 +6211,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6247,7 +6244,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6269,7 +6266,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6291,7 +6288,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6302,7 +6299,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6313,7 +6310,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6335,7 +6332,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6346,7 +6343,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6357,7 +6354,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6390,7 +6387,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6423,7 +6420,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6434,7 +6431,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6467,7 +6464,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6478,7 +6475,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6511,7 +6508,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6522,7 +6519,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6533,7 +6530,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6566,7 +6563,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6610,7 +6607,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6665,7 +6662,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6786,7 +6783,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6841,7 +6838,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6852,7 +6849,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6885,7 +6882,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6896,7 +6893,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6907,7 +6904,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6929,7 +6926,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6940,7 +6937,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6951,7 +6948,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6962,7 +6959,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6973,7 +6970,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6984,7 +6981,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6995,7 +6992,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7006,7 +7003,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7039,7 +7036,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7061,7 +7058,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7083,7 +7080,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7105,7 +7102,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7160,7 +7157,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7215,7 +7212,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7226,7 +7223,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7237,7 +7234,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7292,7 +7289,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7303,7 +7300,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7314,7 +7311,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7325,7 +7322,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7336,7 +7333,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7347,7 +7344,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7369,7 +7366,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7391,7 +7388,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7468,7 +7465,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7501,7 +7498,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7534,7 +7531,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7567,7 +7564,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7600,7 +7597,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7622,7 +7619,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7644,7 +7641,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7666,7 +7663,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7677,7 +7674,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7699,7 +7696,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7710,7 +7707,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7809,7 +7806,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
